--- a/Day 17. Pop Culture/relaciones One Piece.xlsx
+++ b/Day 17. Pop Culture/relaciones One Piece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/GitHub/30DayChartChallenge/Day 17. Pop Culture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796600CD-959C-2149-AECE-280ED55B9482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552122B8-D871-F040-909A-08D486D21F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{82765B8D-CCFB-5B4F-8434-40004922B5DC}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{82765B8D-CCFB-5B4F-8434-40004922B5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="conexiones" sheetId="3" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BAAD69-404B-3442-A26A-E87D05BB772C}">
   <dimension ref="A1:I471"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C471" sqref="C471"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6236,8 +6236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35B8F7-A812-FA44-9CD3-53B943A9CC48}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A142" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
